--- a/Assets/StreamingAssets/LanguageConfig.xlsx
+++ b/Assets/StreamingAssets/LanguageConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>English</t>
   </si>
@@ -157,6 +157,24 @@
   </si>
   <si>
     <t>下一关卡</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>PressKeyToStart</t>
+  </si>
+  <si>
+    <t>Press any key to start!</t>
+  </si>
+  <si>
+    <t>按任意键开始游戏！</t>
   </si>
   <si>
     <t>ReStart</t>
@@ -227,13 +245,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -241,46 +266,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,6 +313,30 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -302,17 +345,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,46 +360,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,13 +397,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,19 +517,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,145 +571,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,6 +607,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -607,31 +649,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,15 +671,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -670,6 +679,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -678,10 +696,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,133 +708,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1175,10 +1193,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1430,59 +1448,81 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>61</v>
+      <c r="A27" t="s">
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C27">
-    <sortCondition ref="A2:A27"/>
+  <sortState ref="A2:C29">
+    <sortCondition ref="A2:A29"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
